--- a/distances.xlsx
+++ b/distances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OASYS\Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839CFC71-C274-4624-A8C0-909A02B95445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D62CE57-E0A1-4A9D-A48B-9F6502E90ABF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="distances" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,7 +486,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -526,12 +529,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -559,6 +563,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -674,7 +679,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average Mx (man^2)</c:v>
+                  <c:v> Average Mx (man^2) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -869,7 +874,7 @@
             <c:numRef>
               <c:f>distances!$B$2:$B$52</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1002682.714286</c:v>
@@ -1236,7 +1241,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2221,7 +2226,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2241,7 +2246,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1002682.714286</v>
       </c>
     </row>
@@ -2249,7 +2254,7 @@
       <c r="A3">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>992066.428571</v>
       </c>
     </row>
@@ -2257,7 +2262,7 @@
       <c r="A4">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>983270.25714300002</v>
       </c>
     </row>
@@ -2265,7 +2270,7 @@
       <c r="A5">
         <v>31</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>976592.6</v>
       </c>
     </row>
@@ -2273,7 +2278,7 @@
       <c r="A6">
         <v>41</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>970318.428571</v>
       </c>
     </row>
@@ -2281,7 +2286,7 @@
       <c r="A7">
         <v>51</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>967231.142857</v>
       </c>
     </row>
@@ -2289,7 +2294,7 @@
       <c r="A8">
         <v>61</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>963632.31428599998</v>
       </c>
     </row>
@@ -2297,7 +2302,7 @@
       <c r="A9">
         <v>71</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>961254.54285700002</v>
       </c>
     </row>
@@ -2305,7 +2310,7 @@
       <c r="A10">
         <v>81</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>957909.17142899998</v>
       </c>
     </row>
@@ -2313,7 +2318,7 @@
       <c r="A11">
         <v>91</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>956930.857143</v>
       </c>
     </row>
@@ -2321,7 +2326,7 @@
       <c r="A12">
         <v>101</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>955777.22857100004</v>
       </c>
     </row>
@@ -2329,7 +2334,7 @@
       <c r="A13">
         <v>111</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>954519.08571400004</v>
       </c>
     </row>
@@ -2337,7 +2342,7 @@
       <c r="A14">
         <v>121</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>954257.62857099995</v>
       </c>
     </row>
@@ -2345,7 +2350,7 @@
       <c r="A15">
         <v>131</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>952241.82857100002</v>
       </c>
     </row>
@@ -2353,7 +2358,7 @@
       <c r="A16">
         <v>141</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>951410.65714300005</v>
       </c>
     </row>
@@ -2361,7 +2366,7 @@
       <c r="A17">
         <v>151</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>950503</v>
       </c>
     </row>
@@ -2369,7 +2374,7 @@
       <c r="A18">
         <v>161</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>950087.65714300005</v>
       </c>
     </row>
@@ -2377,7 +2382,7 @@
       <c r="A19">
         <v>171</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>948883.62857099995</v>
       </c>
     </row>
@@ -2385,7 +2390,7 @@
       <c r="A20">
         <v>181</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>947695.25714300002</v>
       </c>
     </row>
@@ -2393,7 +2398,7 @@
       <c r="A21">
         <v>191</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>947343.285714</v>
       </c>
     </row>
@@ -2401,7 +2406,7 @@
       <c r="A22">
         <v>201</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>946299.142857</v>
       </c>
     </row>
@@ -2409,7 +2414,7 @@
       <c r="A23">
         <v>211</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>944849.37142900005</v>
       </c>
     </row>
@@ -2417,7 +2422,7 @@
       <c r="A24">
         <v>221</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>943460.428571</v>
       </c>
     </row>
@@ -2425,7 +2430,7 @@
       <c r="A25">
         <v>231</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>943547.31428599998</v>
       </c>
     </row>
@@ -2433,7 +2438,7 @@
       <c r="A26">
         <v>241</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>941703.6</v>
       </c>
     </row>
@@ -2441,7 +2446,7 @@
       <c r="A27">
         <v>251</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>941619.05714299995</v>
       </c>
     </row>
@@ -2449,7 +2454,7 @@
       <c r="A28">
         <v>261</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>940486.11428600003</v>
       </c>
     </row>
@@ -2457,7 +2462,7 @@
       <c r="A29">
         <v>271</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>938985.11428600003</v>
       </c>
     </row>
@@ -2465,7 +2470,7 @@
       <c r="A30">
         <v>281</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>939260.97142900003</v>
       </c>
     </row>
@@ -2473,7 +2478,7 @@
       <c r="A31">
         <v>291</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>940727.45714299998</v>
       </c>
     </row>
@@ -2481,7 +2486,7 @@
       <c r="A32">
         <v>301</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>938629.285714</v>
       </c>
     </row>
@@ -2489,7 +2494,7 @@
       <c r="A33">
         <v>311</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>939475.2</v>
       </c>
     </row>
@@ -2497,7 +2502,7 @@
       <c r="A34">
         <v>321</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>939427.68571400002</v>
       </c>
     </row>
@@ -2505,7 +2510,7 @@
       <c r="A35">
         <v>331</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>939177.142857</v>
       </c>
     </row>
@@ -2513,7 +2518,7 @@
       <c r="A36">
         <v>341</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>937787.285714</v>
       </c>
     </row>
@@ -2521,7 +2526,7 @@
       <c r="A37">
         <v>351</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>938169.48571399995</v>
       </c>
     </row>
@@ -2529,7 +2534,7 @@
       <c r="A38">
         <v>361</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>937668.17142899998</v>
       </c>
     </row>
@@ -2537,7 +2542,7 @@
       <c r="A39">
         <v>371</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>936605.97142900003</v>
       </c>
     </row>
@@ -2545,7 +2550,7 @@
       <c r="A40">
         <v>381</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>936664.31428599998</v>
       </c>
     </row>
@@ -2553,7 +2558,7 @@
       <c r="A41">
         <v>391</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>934767.51428600005</v>
       </c>
     </row>
@@ -2561,7 +2566,7 @@
       <c r="A42">
         <v>401</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>935605.428571</v>
       </c>
     </row>
@@ -2569,7 +2574,7 @@
       <c r="A43">
         <v>411</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>934122.22857100004</v>
       </c>
     </row>
@@ -2577,7 +2582,7 @@
       <c r="A44">
         <v>421</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>933174.285714</v>
       </c>
     </row>
@@ -2585,7 +2590,7 @@
       <c r="A45">
         <v>431</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>931795.77142899996</v>
       </c>
     </row>
@@ -2593,7 +2598,7 @@
       <c r="A46">
         <v>441</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>932012.88571399997</v>
       </c>
     </row>
@@ -2601,7 +2606,7 @@
       <c r="A47">
         <v>451</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>932454.285714</v>
       </c>
     </row>
@@ -2609,7 +2614,7 @@
       <c r="A48">
         <v>461</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>933552.2</v>
       </c>
     </row>
@@ -2617,7 +2622,7 @@
       <c r="A49">
         <v>471</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>932742.11428600003</v>
       </c>
     </row>
@@ -2625,7 +2630,7 @@
       <c r="A50">
         <v>481</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>933000.37142900005</v>
       </c>
     </row>
@@ -2633,7 +2638,7 @@
       <c r="A51">
         <v>491</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>931564.48571399995</v>
       </c>
     </row>
@@ -2641,7 +2646,7 @@
       <c r="A52">
         <v>500</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>930757.25714300002</v>
       </c>
     </row>
